--- a/template_examples/tcr_analysis_template.xlsx
+++ b/template_examples/tcr_analysis_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4E1AF-6C17-4E47-960E-08B8B849B019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A585A-F966-C741-A09D-C6514BDBCC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCRseq Analysis" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -99,21 +99,12 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In .csv format</t>
+          <t>Path to a file on a user's computer.
+In .csv format</t>
         </r>
       </text>
     </comment>
@@ -166,10 +157,10 @@
     <t>E.g. 'CTTTP01A1.00'</t>
   </si>
   <si>
-    <t>Tra clones</t>
-  </si>
-  <si>
-    <t>Trb clones</t>
+    <t>Tra clone</t>
+  </si>
+  <si>
+    <t>Trb clone</t>
   </si>
   <si>
     <t>#t</t>
@@ -190,6 +181,24 @@
     <t>#d</t>
   </si>
   <si>
+    <t>CTTTPP111.00</t>
+  </si>
+  <si>
+    <t>tra_clones_count_1.csv</t>
+  </si>
+  <si>
+    <t>trb_clones_count_1.csv</t>
+  </si>
+  <si>
+    <t>CTTTPP121.00</t>
+  </si>
+  <si>
+    <t>tra_clones_count_2.csv</t>
+  </si>
+  <si>
+    <t>trb_clones_count_2.csv</t>
+  </si>
+  <si>
     <t>test_prism_trial_id</t>
   </si>
   <si>
@@ -197,31 +206,13 @@
   </si>
   <si>
     <t>summary_info.csv</t>
-  </si>
-  <si>
-    <t>CTTTPP111.00</t>
-  </si>
-  <si>
-    <t>CTTTPP121.00</t>
-  </si>
-  <si>
-    <t>tra_clones_count_1.csv</t>
-  </si>
-  <si>
-    <t>trb_clones_count_1.csv</t>
-  </si>
-  <si>
-    <t>tra_clones_count_2.csv</t>
-  </si>
-  <si>
-    <t>trb_clones_count_2.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,12 +231,6 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -678,7 +663,7 @@
   <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -687,7 +672,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -696,7 +681,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -704,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -715,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -726,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -755,13 +740,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -769,13 +754,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/template_examples/tcr_analysis_template.xlsx
+++ b/template_examples/tcr_analysis_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A585A-F966-C741-A09D-C6514BDBCC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B82D9-5C81-9A47-91DB-51E6613FB990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,10 +157,10 @@
     <t>E.g. 'CTTTP01A1.00'</t>
   </si>
   <si>
-    <t>Tra clone</t>
-  </si>
-  <si>
-    <t>Trb clone</t>
+    <t>Tra clones umi counts</t>
+  </si>
+  <si>
+    <t>Trb clones umi counts</t>
   </si>
   <si>
     <t>#t</t>
@@ -184,21 +184,9 @@
     <t>CTTTPP111.00</t>
   </si>
   <si>
-    <t>tra_clones_count_1.csv</t>
-  </si>
-  <si>
-    <t>trb_clones_count_1.csv</t>
-  </si>
-  <si>
     <t>CTTTPP121.00</t>
   </si>
   <si>
-    <t>tra_clones_count_2.csv</t>
-  </si>
-  <si>
-    <t>trb_clones_count_2.csv</t>
-  </si>
-  <si>
     <t>test_prism_trial_id</t>
   </si>
   <si>
@@ -206,6 +194,18 @@
   </si>
   <si>
     <t>summary_info.csv</t>
+  </si>
+  <si>
+    <t>1A_10_0_TRA_clones_umi_count.csv</t>
+  </si>
+  <si>
+    <t>1A_10_0_TRB_clones_umi_count.csv</t>
+  </si>
+  <si>
+    <t>2A_10_0_TRA_clones_umi_count.csv</t>
+  </si>
+  <si>
+    <t>2A_10_0_TRB_clones_umi_count.csv</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -301,11 +301,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -317,6 +343,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,7 +695,7 @@
   <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -672,16 +704,16 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -689,10 +721,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -700,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -711,15 +743,15 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -743,10 +775,10 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,13 +786,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1759,6 +1791,7 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/template_examples/tcr_analysis_template.xlsx
+++ b/template_examples/tcr_analysis_template.xlsx
@@ -616,7 +616,7 @@
     <row r="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="8" t="inlineStr">
@@ -629,7 +629,7 @@
     <row r="2" ht="17" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="3" ht="17" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -695,7 +695,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -761,1386 +761,1386 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/tcr_analysis_template.xlsx
+++ b/template_examples/tcr_analysis_template.xlsx
@@ -609,7 +609,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -677,7 +677,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -2161,7 +2160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,6 +2168,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -2319,6 +2319,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData/>

--- a/template_examples/tcr_analysis_template.xlsx
+++ b/template_examples/tcr_analysis_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FD8DC-C598-8C46-A508-697BC8D21619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA2DA4-7711-A74D-B615-6BC454426EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCRseq Analysis" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
   <dimension ref="A1:D2008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/template_examples/tcr_analysis_template.xlsx
+++ b/template_examples/tcr_analysis_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TCRseq Analysis" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TCR Analysis" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Excluded Samples" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Legend" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Data Dictionary" sheetId="4" state="visible" r:id="rId5"/>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">#skip</t>
   </si>
   <si>
-    <t xml:space="preserve">TCRseq Runs</t>
+    <t xml:space="preserve">TCR Runs</t>
   </si>
   <si>
     <t xml:space="preserve">#header</t>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">LEGEND</t>
   </si>
   <si>
-    <t xml:space="preserve">Legend for tab 'TCRseq Analysis'</t>
+    <t xml:space="preserve">Legend for tab 'TCR Analysis'</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
@@ -297,7 +297,7 @@
     <t xml:space="preserve">Path to a file on a user's computer.</t>
   </si>
   <si>
-    <t xml:space="preserve">Section 'TCRseq Runs' of tab 'TCRseq Analysis'</t>
+    <t xml:space="preserve">Section 'TCR Runs' of tab 'TCR Analysis'</t>
   </si>
   <si>
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
@@ -476,11 +476,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,8 +496,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 3" xfId="20"/>
-    <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 3" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -569,11 +569,11 @@
   </sheetPr>
   <dimension ref="A1:E2008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9:D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10701,10 +10701,10 @@
   <dimension ref="A1:C2002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B9:D10 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -20763,11 +20763,11 @@
   </sheetPr>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9:D10 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -20777,7 +20777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -20933,10 +20933,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B9:D10 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>

--- a/template_examples/tcr_analysis_template.xlsx
+++ b/template_examples/tcr_analysis_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TCR Analysis" sheetId="1" state="visible" r:id="rId2"/>
@@ -66,7 +66,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .csv format</t>
         </r>
       </text>
@@ -81,7 +81,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .gz format</t>
         </r>
       </text>
@@ -96,7 +96,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -110,7 +110,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .csv format</t>
         </r>
       </text>
@@ -125,7 +125,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .csv format</t>
         </r>
       </text>
@@ -164,7 +164,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">TCRseq batch identification number.</t>
   </si>
   <si>
-    <t xml:space="preserve">Path to a file on a user's computer.</t>
+    <t xml:space="preserve">Path to file, relative to the intake bucket.</t>
   </si>
   <si>
     <t xml:space="preserve">Section 'TCR Runs' of tab 'TCR Analysis'</t>
@@ -303,7 +303,7 @@
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
   </si>
   <si>
     <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
@@ -459,7 +459,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,11 +476,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,8 +500,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="21"/>
+    <cellStyle name="Normal 3" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -569,11 +573,11 @@
   </sheetPr>
   <dimension ref="A1:E2008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -663,13 +667,13 @@
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -677,13 +681,13 @@
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10701,10 +10705,10 @@
   <dimension ref="A1:C2002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C2:C5 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10733,10 +10737,10 @@
       <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10744,10 +10748,10 @@
       <c r="A4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -20763,21 +20767,21 @@
   </sheetPr>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
@@ -20826,7 +20830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -20933,10 +20937,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
